--- a/DataSet/ViewTheirOwnAccount.xlsx
+++ b/DataSet/ViewTheirOwnAccount.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,6 +16,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Internal ID</t>
   </si>
@@ -93,6 +96,9 @@
   </si>
   <si>
     <t>My account</t>
+  </si>
+  <si>
+    <t>Email address</t>
   </si>
 </sst>
 </file>
@@ -456,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,7 +541,7 @@
         <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
